--- a/data/mba1.xlsx
+++ b/data/mba1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\275679\Desktop\Node\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C147B0-A8F8-4C95-930F-B3999099758C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7F570A-2181-4652-99BB-83A606FFD3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="794" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23863,8 +23863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1508CC6-60FF-41CD-9469-BD07C6D50EE5}">
   <dimension ref="A1:Q253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="D224" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
